--- a/similarities/split_global/harmonic_similarity_timestamps_343.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_343.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,690 +484,754 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>isophonics_149</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>schubert-winterreise_209</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A:min/b3', 'B:7', 'E'], ['A/3', 'D', 'A']]</t>
+          <t>['B', 'E', 'B']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:min', 'A:7/C#', 'D:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:44.913000', '0:00:50.190000'), ('0:00:04.250000', '0:00:09.179000')]</t>
+          <t>('0:00:01.421269', '0:00:26.162131')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:13.640000', '0:00:19.300000'), ('0:01:02.480000', '0:01:04.920000')]</t>
+          <t>('0:02:18.800000', '0:02:24.460000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=44.913', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=1.421269</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=13.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>jaah_86</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D'], ['A/3', 'D', 'A']]</t>
+          <t>['F#:maj/A#', 'C#:7', 'F#:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G#:maj', 'D#:maj', 'G#:maj'], ['D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:21.722199', '0:00:26.760929'), ('0:01:05.810340', '0:01:11.679931')]</t>
+          <t>('0:00:17.480000', '0:00:19.720000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:02:01.080000', '0:02:02.040000'), ('0:01:58.400000', '0:02:01.720000')]</t>
+          <t>('0:00:13.390000', '0:00:17.230000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=21.722199', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=65.81034']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=17.48</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=121.08', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=13.39</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>isophonics_127</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A', 'A:7/3', 'D']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['Ab/b5', 'Ab:7', 'Db/3']]</t>
+          <t>['D', 'G', 'D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:14.541510', '0:00:23.411533')]</t>
+          <t>('0:02:09.380000', '0:02:15.340000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:05.320000', '0:00:06.840000')]</t>
+          <t>('0:00:17.965212', '0:00:29.679679')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=14.54151']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=129.38</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=5.32']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-127#t=17.965212</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_226</t>
+          <t>isophonics_261</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_38</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'F#:min']]</t>
+          <t>['D:7', 'G:min', 'C:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:maj', 'A:min/C']]</t>
+          <t>['A#:7', 'D#:min', 'G#:min/B']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:16.759569', '0:00:31.190770')]</t>
+          <t>('0:01:00.854263', '0:01:06.566371')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:18.920000', '0:00:24.120000')]</t>
+          <t>('0:00:25.260000', '0:00:34.280000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-226#t=16.759569']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=60.854263</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=18.92']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=25.26</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_7</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>isophonics_164</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['C:maj/G', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:00.040000', '0:01:07.080000')]</t>
+          <t>('0:00:32.980000', '0:00:35.260000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+          <t>('0:00:48.001000', '0:00:54.307000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=32.98</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=48.001</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_124</t>
+          <t>schubert-winterreise_120</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>schubert-winterreise_19</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C'], ['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>['A#:min', 'F:7/C', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['F#:7/B', 'B:min', 'E:min/B']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:48', '0:00:52.200000'), ('0:00:26.360000', '0:00:34.360000')]</t>
+          <t>('0:00:02.600000', '0:00:04.500000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:13.120000', '0:00:19.960000'), ('0:00:23.420000', '0:00:31.440000')]</t>
+          <t>('0:00:00.360000', '0:00:05')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=48.0', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=26.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=2.6</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=13.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=23.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=0.36</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>isophonics_191</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>isophonics_258</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['Gb', 'B', 'Gb', 'B', 'Gb']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['G', 'C', 'G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:04:14.260000', '0:04:20.200000')]</t>
+          <t>('0:00:14.367913', '0:00:23.667505')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:04.080000', '0:01:13.880000')]</t>
+          <t>('0:02:47.747000', '0:02:53.156000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=254.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-191#t=14.367913</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=64.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-258#t=167.747</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>isophonics_97</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>['D:min', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
+          <t>['F:min', 'A#:7/F', 'D#']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:24', '0:01:30.840000'), ('0:00:28.800000', '0:00:36.860000')]</t>
+          <t>('0:00:09.330793', '0:00:22.635827')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:02.580000', '0:00:07.080000'), ('0:00:00.220000', '0:00:03.440000')]</t>
+          <t>('0:00:49.740000', '0:00:52.580000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=84.0', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=28.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-97#t=9.330793</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=2.58', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=0.22']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=49.74</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_84</t>
+          <t>schubert-winterreise_150</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>isophonics_61</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F#:7', 'F:7', 'Bb:7', 'Eb:7']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['Db:7', 'C:7', 'F:7', 'Bb:7']]</t>
+          <t>['F#:min', 'C#', 'F#:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:11.240000', '0:01:17.320000')]</t>
+          <t>('0:00:01.560000', '0:00:06.900000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:54.120000', '0:01:04.710000')]</t>
+          <t>('0:00:03.744784', '0:00:06.774988')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-84#t=71.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=1.56</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=54.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=3.744784</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>isophonics_277</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['B', 'F#', 'B']]</t>
+          <t>['C:maj', 'F:maj', 'C:maj/E']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:42.900000', '0:00:45.160000')]</t>
+          <t>('0:00:32.920657', '0:00:39.410634')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:24.838594', '0:00:43.252018')]</t>
+          <t>('0:01:09.860000', '0:01:13.740000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=42.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=32.920657</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=24.838594']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>isophonics_175</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['A#', 'A#/F', 'F:7', 'A#']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:03:56.780000', '0:04:09.140000')]</t>
+          <t>('0:01:43.520929', '0:01:48.664149')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:04:29.700000', '0:04:38.420000')]</t>
+          <t>('0:00:21.580000', '0:00:29.340000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=236.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-175#t=103.520929</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=269.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=21.58</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
+          <t>isophonics_59</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'F#:min'], ['A', 'D', 'A']]</t>
+          <t>['C/5', 'G', 'D']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'A:min'], ['C:maj', 'F/5', 'C:maj']]</t>
+          <t>['G:maj', 'D:maj', 'A:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:02.795551', '0:00:15.447641'), ('0:00:28.009637', '0:00:33.826235')]</t>
+          <t>('0:00:37.239569', '0:00:40.954761')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:26.915000', '0:00:30.761000'), ('0:00:10.619000', '0:00:16.742000')]</t>
+          <t>('0:01:01.800000', '0:01:09.440000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=2.795551', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=28.009637']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=37.239569</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=26.915', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=10.619']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=61.8</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>isophonics_261</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj']]</t>
+          <t>['C', 'G', 'A:min7']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['A#:maj/D', 'F:maj/C', 'G:min7/A#']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:00.820000', '0:00:08.800000')]</t>
+          <t>('0:00:14.565283', '0:00:18.936988')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:49.560000', '0:00:55.720000')]</t>
+          <t>('0:01:09.060000', '0:01:12.500000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=0.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=14.565283</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=69.06</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_146</t>
+          <t>isophonics_147</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['C:maj/E', 'G:maj/D', 'G:7/F']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['A', 'E', 'E:7']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:34.410000', '0:00:39.540000')]</t>
+          <t>('0:00:58.300000', '0:01:03.180000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:05.915850', '0:00:14.867142')]</t>
+          <t>('0:01:32.241000', '0:01:38.929000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=58.3</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-146#t=5.91585']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=92.241</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:23.460000', '0:01:30.900000')]</t>
+          <t>('0:01:23.100000', '0:01:30.020000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:00.120000', '0:01:01.360000')]</t>
+          <t>('0:00:40.820000', '0:00:43.620000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=83.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=83.1</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.12']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=40.82</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
